--- a/Client/Unity/LubanConfig/MiniTemplate/Datas/#buyCfg.xlsx
+++ b/Client/Unity/LubanConfig/MiniTemplate/Datas/#buyCfg.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>##group</t>
   </si>
 </sst>
 </file>
@@ -136,8 +139,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:E4" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="B2:E4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B3:E5" tableType="xml" totalsRowShown="0" connectionId="1">
+  <autoFilter ref="B3:E5"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="1" xpath="/root/item/@ID" xmlDataType="integer"/>
@@ -443,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,46 +479,51 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>1000</v>
       </c>
     </row>
